--- a/로스트아크/Affect_Table(수정필요).xlsx
+++ b/로스트아크/Affect_Table(수정필요).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBF3588-C2DD-47AF-8DD9-E187413A1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2DBDC6-4C7C-447E-B0AB-644AAA318021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
-    <sheet name="Info Table" sheetId="1" r:id="rId2"/>
+    <sheet name="Affect Table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,83 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">최대 중첩 수
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1: 최대 1중첩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(=중첩 불가능)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 9999: 제한 없음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affected_attr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_dispellable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해제 가능 여부
+0: 해제 불가능 / 1: 해제 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과로 변하는 스탯/상태 등
+(예시) ATKPW : 공격력 변경 // MOVESPD : 이동 속도 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">효과 타입 
 </t>
     </r>
@@ -335,14 +412,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3: 상태 이상</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">최대 중첩 수
-</t>
+      <t xml:space="preserve">3: 상태 이상 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//</t>
     </r>
     <r>
       <rPr>
@@ -353,18 +434,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1: 최대 1중첩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(=중첩 불가능)</t>
+      <t xml:space="preserve"> 4: 시너지 효과 </t>
     </r>
     <r>
       <rPr>
@@ -375,7 +445,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> //</t>
+      <t>//</t>
     </r>
     <r>
       <rPr>
@@ -386,25 +456,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 9999: 제한 없음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affected_attr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과가 적용되는 스탯 등의 데이터 속성 (예시 : ATK -&gt; 공격력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_dispellable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해제 가능 여부
-0: 해제 불가능 / 1: 해제 가능</t>
+      <t xml:space="preserve"> 5: 모드 변경</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +469,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,8 +553,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +603,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -819,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +1001,36 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,229 +1346,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="75.3984375" style="2" customWidth="1"/>
-    <col min="6" max="8" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="75.3984375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="26" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="11">
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="C11" s="11"/>
+      <c r="D11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="F14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="F15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="17"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
